--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1075.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1075.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8110434987804631</v>
+        <v>1.207534670829773</v>
       </c>
       <c r="B1">
-        <v>2.038794070978535</v>
+        <v>2.622440814971924</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.292207500701632</v>
+        <v>2.167834758758545</v>
       </c>
       <c r="E1">
-        <v>1.436533367662816</v>
+        <v>1.165008068084717</v>
       </c>
     </row>
   </sheetData>
